--- a/04_CPlusPlus_DataStructures/005_实现string类.xlsx
+++ b/04_CPlusPlus_DataStructures/005_实现string类.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\04_CPlusPlus_DataStructures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC30A864-DAB6-4F23-860E-D269B0ECD607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FC8EEB-4B60-4FB0-84D6-2A7D236C689A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1008,8 +1008,38 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>return ret;</a:t>
-          </a:r>
+            <a:t>return ret; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>调用拷贝构造函数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3306,7 +3336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
